--- a/static/output_excel/output_reins.xlsx
+++ b/static/output_excel/output_reins.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,23 +424,1146 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>﻿No.</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>requirement</t>
+          <t>物件番号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>物件種目</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>土地面積</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>所在地</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>search_rental</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
+          <t>取引態様</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>価格</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>用途地域</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>㎡単価</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>取引状況</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>建ぺい率</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>坪単価</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沿線駅</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>交通</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>容積率</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>接道状況</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>商号</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>接道１</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>電話番号</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100127874140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>売地</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.57㎡</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>東京都中央区湊３丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>売主</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8,000万円</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>商業</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>231.5万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>765.1万円</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>有楽町線　新富町</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>徒歩　4分</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>500%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>一方</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>（株）コプラス</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>北11m</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>090-6598-7054</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100124380183</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>売地</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.93㎡</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>東京都中央区日本橋浜町２丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>専属</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6,980万円</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>商業</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>218.7万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>公開中</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>722.7万円</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>都営新宿線　浜町</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>徒歩　2分</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>一方</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>東急リバブル（株）　麻布センター</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>南東4m</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>03-5765-6962</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100127003799</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>売地</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.44㎡</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>東京都中央区日本橋蛎殻町１丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9,990万円</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>商業</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>219.9万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>726.8万円</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>半蔵門線　水天宮前</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>徒歩　4分</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>360%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>一方</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>東急リバブル（株）　茗荷谷センター</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>北西6m</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>03-6892-4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>100127563786</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>売地</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>53.71㎡</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>東京都中央区月島３丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>専属</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7,990万円</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>商業</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>148.8万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>申込あり</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>491.8万円</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>有楽町線　月島</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>徒歩　4分</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>240%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>一方</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>住友林業ホームサービス（株）　東京支店</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>南西3.3m</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>03-3231-2700</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>100127535465</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>売地</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>45.54㎡</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>東京都中央区佃２丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>専任</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5,980万円</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>二住</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>131.4万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>公開中</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>434.1万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>400%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>一方</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ｂｌｕｅ　Ｃｒｅａ（株）</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08048369464</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>100126388604</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>売地</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>37.00㎡</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>東京都中央区月島２丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>売主</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4,780万円</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>129.2万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>427.1万円</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>有楽町線　月島</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>徒歩　4分</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>（株）ブリリアント</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08079977323</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100126394755</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>売地</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>38.00㎡</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>東京都中央区月島２丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>売主</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4,980万円</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>131.1万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>433.3万円</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>有楽町線　月島</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>徒歩　4分</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>（株）ブリリアント</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>08079977323</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>100127442375</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>借地権</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>63.33㎡</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>東京都中央区日本橋蛎殻町１丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>専任</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9,480万円</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>商業</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>149.7万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>公開中</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>494.9万円</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>日比谷線　人形町</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>徒歩　3分</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>600%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>一方</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>（株）国土地所</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>北5m</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0332950200</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>100124908968</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>売地</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>41.32㎡</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>東京都中央区日本橋浜町２丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>専任</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9,100万円</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>商業</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>220.3万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>公開中</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>728.1万円</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>都営新宿線　浜町</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>徒歩　3分</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>180%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>一方</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>住友不動産販売（株）　八重洲統括オフィス　八重洲営業センター</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>北西3m</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>03-6852-0225</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>100127011974</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>売地</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>47.60㎡</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>東京都中央区佃２丁目</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>専任</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6,000万円</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>二住</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>126.1万円</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>公開中</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>416.7万円</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>有楽町線　月島</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>徒歩　3分</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>400%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>角地</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ロイヤルハウジング販売（株）　月島キャピタルゲート店</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>北西</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>03-3536-2311</t>
+        </is>
       </c>
     </row>
   </sheetData>
